--- a/core/seed_vendors_vendor.xlsx
+++ b/core/seed_vendors_vendor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99328301-5652-49E2-AF93-BF70BA4F24E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27096610-1B99-42E4-B08E-356963F43537}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,31 +31,31 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>Vendor 01</t>
-  </si>
-  <si>
-    <t>Vendor 02</t>
-  </si>
-  <si>
-    <t>Vendor 03</t>
-  </si>
-  <si>
-    <t>Vendor 04</t>
-  </si>
-  <si>
-    <t>Vendor 05</t>
-  </si>
-  <si>
-    <t>Vendor 06</t>
-  </si>
-  <si>
-    <t>Vendor 07</t>
-  </si>
-  <si>
     <t>DISTRIBUTOR</t>
   </si>
   <si>
     <t>WHOLESALER</t>
+  </si>
+  <si>
+    <t>VENDOR-01</t>
+  </si>
+  <si>
+    <t>VENDOR-02</t>
+  </si>
+  <si>
+    <t>VENDOR-03</t>
+  </si>
+  <si>
+    <t>VENDOR-04</t>
+  </si>
+  <si>
+    <t>VENDOR-05</t>
+  </si>
+  <si>
+    <t>VENDOR-06</t>
+  </si>
+  <si>
+    <t>VENDOR-07</t>
   </si>
 </sst>
 </file>
@@ -899,7 +899,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,7 +918,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -926,50 +926,50 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
